--- a/covid19_de.xlsx
+++ b/covid19_de.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yefeng Xia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yefeng Xia\Documents\GitHub\Covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981F0293-A7D0-4358-9F56-AE166CF8D03C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CA7941-00C7-4E2A-A6EC-158682F151E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Hamburg</t>
   </si>
@@ -204,6 +204,10 @@
   </si>
   <si>
     <t>05_02_2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28_02_2020</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -546,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -560,7 +564,7 @@
     <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -660,23 +664,29 @@
       <c r="AG1" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -689,8 +699,11 @@
       <c r="AG5">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -742,8 +755,11 @@
       <c r="AG6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -751,7 +767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -764,8 +780,11 @@
       <c r="AG8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -865,38 +884,41 @@
       <c r="AG9">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
